--- a/Tests/DeleteProductsFromCart/Default.xlsx
+++ b/Tests/DeleteProductsFromCart/Default.xlsx
@@ -15,7 +15,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
+  <si>
+    <t>B</t>
+  </si>
   <si>
     <t>madalina123</t>
   </si>
@@ -42,6 +45,9 @@
   </si>
   <si>
     <t>ProductsName</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>https://www.demoblaze.com/index.html</t>
@@ -544,7 +550,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -552,67 +558,83 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="3" width="9.41796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="18.296875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.40625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14.796875" style="2" customWidth="1"/>
     <col min="4" max="4" width="15.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.40625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.70703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>8</v>
+      <c r="G1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
